--- a/apps/web/public/template-booked.xlsx
+++ b/apps/web/public/template-booked.xlsx
@@ -1,59 +1,376 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Đặt phòng" sheetId="1" r:id="rId1"/>
-    <sheet name="Hướng dẫn" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="Đặt phòng" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Hướng dẫn" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Lưu ý quan trọng" state="visible" r:id="rId6"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="107">
+  <si>
+    <t>Mã đặt phòng</t>
+  </si>
+  <si>
+    <t>Ngày đặt</t>
+  </si>
+  <si>
+    <t>Ngày nhận phòng</t>
+  </si>
+  <si>
+    <t>Ngày trả phòng</t>
+  </si>
+  <si>
+    <t>Số phòng</t>
+  </si>
+  <si>
+    <t>Doanh thu</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Loại phòng</t>
+  </si>
+  <si>
+    <t>Nguồn đặt</t>
+  </si>
+  <si>
+    <t>Tên khách/Nhóm</t>
+  </si>
+  <si>
+    <t>Nhân viên bán</t>
+  </si>
+  <si>
+    <t>Giá net/đêm</t>
+  </si>
+  <si>
+    <t>Số khách</t>
+  </si>
+  <si>
+    <t>Tổng đêm phòng</t>
+  </si>
+  <si>
+    <t>Số đêm</t>
+  </si>
+  <si>
+    <t>Nhân viên tạo</t>
+  </si>
+  <si>
+    <t>RES-001</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>2025-02-12</t>
+  </si>
+  <si>
+    <t>booked</t>
+  </si>
+  <si>
+    <t>SBD</t>
+  </si>
+  <si>
+    <t>Booking.com</t>
+  </si>
+  <si>
+    <t>Nguyen Van A</t>
+  </si>
+  <si>
+    <t>Tran B</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>RES-002</t>
+  </si>
+  <si>
+    <t>2025-01-16</t>
+  </si>
+  <si>
+    <t>2025-02-11</t>
+  </si>
+  <si>
+    <t>STW</t>
+  </si>
+  <si>
+    <t>Agoda</t>
+  </si>
+  <si>
+    <t>Le Van C</t>
+  </si>
+  <si>
+    <t>FD01</t>
+  </si>
+  <si>
+    <t>RES-003</t>
+  </si>
+  <si>
+    <t>2025-01-17</t>
+  </si>
+  <si>
+    <t>2025-02-14</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>Pham D Group</t>
+  </si>
+  <si>
+    <t>Hoang E</t>
+  </si>
+  <si>
+    <t>RES-004</t>
+  </si>
+  <si>
+    <t>2025-01-18</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>STRP</t>
+  </si>
+  <si>
+    <t>Traveloka</t>
+  </si>
+  <si>
+    <t>Do Van F</t>
+  </si>
+  <si>
+    <t>FD02</t>
+  </si>
+  <si>
+    <t>RES-005</t>
+  </si>
+  <si>
+    <t>2025-01-19</t>
+  </si>
+  <si>
+    <t>2025-02-13</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>Walk-in Guest</t>
+  </si>
+  <si>
+    <t>Cột</t>
+  </si>
+  <si>
+    <t>Tiếng Anh (mapping)</t>
+  </si>
+  <si>
+    <t>Bắt buộc</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Ví dụ</t>
+  </si>
+  <si>
+    <t>reservation_id</t>
+  </si>
+  <si>
+    <t>Có</t>
+  </si>
+  <si>
+    <t>Mã đặt phòng duy nhất từ PMS (ConfirmNum)</t>
+  </si>
+  <si>
+    <t>booking_date</t>
+  </si>
+  <si>
+    <t>Ngày khách đặt phòng (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>arrival_date</t>
+  </si>
+  <si>
+    <t>Ngày khách check-in (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>departure_date</t>
+  </si>
+  <si>
+    <t>Ngày khách check-out (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Số lượng phòng đặt (NumRoom)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>revenue</t>
+  </si>
+  <si>
+    <t>Tổng doanh thu (VND, không dấu chấm)</t>
+  </si>
+  <si>
+    <t>2000000</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Luôn điền "booked"</t>
+  </si>
+  <si>
+    <t>room_type</t>
+  </si>
+  <si>
+    <t>Không</t>
+  </si>
+  <si>
+    <t>Mã loại phòng: SBD, STW, SGD, STRP... (RoomTypeCode)</t>
+  </si>
+  <si>
+    <t>company_name</t>
+  </si>
+  <si>
+    <t>Tên OTA/Agent/Công ty (ClientName). VD: Booking.com, Agoda, Vietravel</t>
+  </si>
+  <si>
+    <t>guest_name</t>
+  </si>
+  <si>
+    <t>Tên khách hoặc tên nhóm (GroupName)</t>
+  </si>
+  <si>
+    <t>salesperson</t>
+  </si>
+  <si>
+    <t>Tên nhân viên bán hàng (SlsName từ XML Group Header)</t>
+  </si>
+  <si>
+    <t>rate_per_room_night</t>
+  </si>
+  <si>
+    <t>Giá net mỗi phòng mỗi đêm (GNetRate, VND)</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>pax</t>
+  </si>
+  <si>
+    <t>Số lượng khách (NumPax)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>room_nights</t>
+  </si>
+  <si>
+    <t>Tổng đêm phòng = Số phòng × Số đêm (Rnight)</t>
+  </si>
+  <si>
+    <t>nights</t>
+  </si>
+  <si>
+    <t>Số đêm lưu trú (@night hoặc departure - arrival)</t>
+  </si>
+  <si>
+    <t>create_clerk</t>
+  </si>
+  <si>
+    <t>Tên nhân viên tạo booking (createclerk)</t>
+  </si>
+  <si>
+    <t>📌 Lưu ý quan trọng khi Upload dữ liệu đặt phòng</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1. Cột BẮT BUỘC: Mã đặt phòng, Ngày đặt, Ngày nhận phòng, Ngày trả phòng, Số phòng, Doanh thu, Trạng thái</t>
+  </si>
+  <si>
+    <t>2. Cột TÙY CHỌN: Loại phòng, Nguồn đặt, Tên khách/Nhóm, Nhân viên bán, Giá net/đêm, Số khách, Tổng đêm phòng, Số đêm, Nhân viên tạo</t>
+  </si>
+  <si>
+    <t>3. Các cột tùy chọn giúp hệ thống phân tích GM Reporting chi tiết hơn (source, room type, ADR, LOS...)</t>
+  </si>
+  <si>
+    <t>📊 Segment tự động:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Hệ thống tự phân loại "Nguồn đặt" thành: OTA / AGENT / DIRECT / UNKNOWN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - VD: "Booking.com" → OTA, "Vietravel" → AGENT, để trống → DIRECT</t>
+  </si>
+  <si>
+    <t>🔑 Quy tắc quan trọng:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Mỗi dòng = 1 loại phòng trong booking (nếu booking có 2 loại phòng → 2 dòng cùng Mã đặt phòng)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Doanh thu là tổng doanh thu cho loại phòng đó trong booking (không phải giá/đêm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Ngày format: YYYY-MM-DD (VD: 2025-02-10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Doanh thu: số nguyên (VD: 2000000), không viết 2.000.000</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF1D4ED8"/>
+      <sz val="14"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -61,18 +378,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB0C4DE"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -397,56 +734,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P6"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Mã đặt phòng</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Ngày đặt</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Ngày nhận phòng</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Ngày trả phòng</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Số phòng</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Doanh thu</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Trạng thái</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>RES-001</v>
-      </c>
-      <c r="B2" t="str">
-        <v>2025-01-15</v>
-      </c>
-      <c r="C2" t="str">
-        <v>2025-02-10</v>
-      </c>
-      <c r="D2" t="str">
-        <v>2025-02-12</v>
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -454,22 +822,49 @@
       <c r="F2">
         <v>2000000</v>
       </c>
-      <c r="G2" t="str">
-        <v>booked</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>RES-002</v>
-      </c>
-      <c r="B3" t="str">
-        <v>2025-01-16</v>
-      </c>
-      <c r="C3" t="str">
-        <v>2025-02-10</v>
-      </c>
-      <c r="D3" t="str">
-        <v>2025-02-11</v>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2">
+        <v>1000000</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -477,22 +872,46 @@
       <c r="F3">
         <v>1500000</v>
       </c>
-      <c r="G3" t="str">
-        <v>booked</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>RES-003</v>
-      </c>
-      <c r="B4" t="str">
-        <v>2025-01-17</v>
-      </c>
-      <c r="C4" t="str">
-        <v>2025-02-11</v>
-      </c>
-      <c r="D4" t="str">
-        <v>2025-02-14</v>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3">
+        <v>750000</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -500,22 +919,46 @@
       <c r="F4">
         <v>4500000</v>
       </c>
-      <c r="G4" t="str">
-        <v>booked</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>RES-004</v>
-      </c>
-      <c r="B5" t="str">
-        <v>2025-01-18</v>
-      </c>
-      <c r="C5" t="str">
-        <v>2025-02-12</v>
-      </c>
-      <c r="D5" t="str">
-        <v>2025-02-15</v>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4">
+        <v>1500000</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -523,22 +966,46 @@
       <c r="F5">
         <v>3000000</v>
       </c>
-      <c r="G5" t="str">
-        <v>booked</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>RES-005</v>
-      </c>
-      <c r="B6" t="str">
-        <v>2025-01-19</v>
-      </c>
-      <c r="C6" t="str">
-        <v>2025-02-13</v>
-      </c>
-      <c r="D6" t="str">
-        <v>2025-02-16</v>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5">
+        <v>1000000</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -546,170 +1013,429 @@
       <c r="F6">
         <v>6000000</v>
       </c>
-      <c r="G6" t="str">
-        <v>booked</v>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6">
+        <v>1000000</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>6</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="45.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="55" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Cột</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Tiếng Anh</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Bắt buộc</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Mô tả</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Ví dụ</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Mã đặt phòng</v>
-      </c>
-      <c r="B2" t="str">
-        <v>reservation_id</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Có</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Mã đặt phòng duy nhất từ PMS</v>
-      </c>
-      <c r="E2" t="str">
-        <v>RES-001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Ngày đặt</v>
-      </c>
-      <c r="B3" t="str">
-        <v>booking_date</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Có</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Ngày khách đặt phòng (YYYY-MM-DD)</v>
-      </c>
-      <c r="E3" t="str">
-        <v>2025-01-15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Ngày nhận phòng</v>
-      </c>
-      <c r="B4" t="str">
-        <v>arrival_date</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Có</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Ngày khách check-in (YYYY-MM-DD)</v>
-      </c>
-      <c r="E4" t="str">
-        <v>2025-02-10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Ngày trả phòng</v>
-      </c>
-      <c r="B5" t="str">
-        <v>departure_date</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Có</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Ngày khách check-out (YYYY-MM-DD)</v>
-      </c>
-      <c r="E5" t="str">
-        <v>2025-02-12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Số phòng</v>
-      </c>
-      <c r="B6" t="str">
-        <v>rooms</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Có</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Số lượng phòng đặt</v>
-      </c>
-      <c r="E6" t="str">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Doanh thu</v>
-      </c>
-      <c r="B7" t="str">
-        <v>revenue</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Có</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Tổng doanh thu (VND, không dấu chấm)</v>
-      </c>
-      <c r="E7" t="str">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Trạng thái</v>
-      </c>
-      <c r="B8" t="str">
-        <v>status</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Có</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Luôn điền "booked"</v>
-      </c>
-      <c r="E8" t="str">
-        <v>booked</v>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E8"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="90" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>